--- a/floorINFO.xlsx
+++ b/floorINFO.xlsx
@@ -4,10 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="7 этаж" sheetId="7" r:id="rId1"/>
+    <sheet name="6 этаж" sheetId="6" r:id="rId2"/>
+    <sheet name="5 этаж" sheetId="3" r:id="rId3"/>
+    <sheet name="4 этаж" sheetId="1" r:id="rId4"/>
+    <sheet name="3 этаж" sheetId="2" r:id="rId5"/>
+    <sheet name="2 этаж" sheetId="4" r:id="rId6"/>
+    <sheet name="1 этаж" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +81,6 @@
     <t>кафедра</t>
   </si>
   <si>
-    <t>деканат</t>
-  </si>
-  <si>
     <t>Кафедра ИТ ИМИ</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
     <t>Васильев Максим Дмитриевич заместитель директора по научной работе</t>
   </si>
   <si>
-    <t>УМО Института математики и информатики</t>
-  </si>
-  <si>
     <t>СУНЦ</t>
   </si>
   <si>
@@ -130,18 +130,603 @@
   </si>
   <si>
     <t>Лаборатория общей и неорганической химии</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория высокомалекулярных соединений</t>
+  </si>
+  <si>
+    <t>преподавательская биологического отделения</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория нанокомпозитов</t>
+  </si>
+  <si>
+    <t>Кафедра</t>
+  </si>
+  <si>
+    <t>Кафедра зоологии ИЕН</t>
+  </si>
+  <si>
+    <t>Преподавательская ИЕН</t>
+  </si>
+  <si>
+    <t>Лаборатория электрических химических методов анализа</t>
+  </si>
+  <si>
+    <t>Весовая аудитория</t>
+  </si>
+  <si>
+    <t>Петрова Наталия Николаевна заведующая химическим отделением</t>
+  </si>
+  <si>
+    <t>Лаборатория физической и коллоидной химии</t>
+  </si>
+  <si>
+    <t>Лаборанская ИЕН</t>
+  </si>
+  <si>
+    <t>Лаборатория аналитической химии</t>
+  </si>
+  <si>
+    <t>Препараторская аналитеской химии</t>
+  </si>
+  <si>
+    <t>Лаборатория общей химии</t>
+  </si>
+  <si>
+    <t>Лекционная аудитория</t>
+  </si>
+  <si>
+    <t>Кафедра "Теория и методика обучения математике и информатике" ИМИ</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории электричества и магнетизма</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория электричества и магнетизма</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория атомной и ядерной физики</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории атомной и ядерной физики</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория общей физической практики</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории общей физической практики</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория биофизики</t>
+  </si>
+  <si>
+    <t>Кафедра "Общая и эксперементальная физика", заведующая Мамаева Саргылана Николаевна</t>
+  </si>
+  <si>
+    <t>ПОС ФТИ</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория общего физпрактикума</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория спектроскопии и медицинской физики</t>
+  </si>
+  <si>
+    <t>Преподавательская кафедры "Высшая математика" ИМИ</t>
+  </si>
+  <si>
+    <t>Кафедра "Высшей математики", заведующий кафедрой Васильев Максим Дмитриевич</t>
+  </si>
+  <si>
+    <t>Преподавательская кафедры "Математическая экономика и прикладная информатика"</t>
+  </si>
+  <si>
+    <t>Кафедра "Математическая экономика и прикладная информатика"</t>
+  </si>
+  <si>
+    <t>Преподавательская методики преподавания математики</t>
+  </si>
+  <si>
+    <t>Кафедра "Методика обучения математике"</t>
+  </si>
+  <si>
+    <t>Преподавательская ИМИ</t>
+  </si>
+  <si>
+    <t>Большая лекционная аудитория</t>
+  </si>
+  <si>
+    <t>Учебно-методический кабинет кафедры МЭПИ</t>
+  </si>
+  <si>
+    <t>Учебная аудитория</t>
+  </si>
+  <si>
+    <t>353a</t>
+  </si>
+  <si>
+    <t>ПОС ИМИ</t>
+  </si>
+  <si>
+    <t>Преподавательская химического отделения</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория по биохимии</t>
+  </si>
+  <si>
+    <t>Преподавательская биологического отделения</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория экологической биохимии</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория газо-жидкостной хромографии</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория органической химии</t>
+  </si>
+  <si>
+    <t>Лаборанская органической химии ИЕН</t>
+  </si>
+  <si>
+    <t>Препараторская учебной лаборатории по экологической биохимии</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория экологической биологии</t>
+  </si>
+  <si>
+    <t>Лаборатория химии и технологии углеводороного сырья</t>
+  </si>
+  <si>
+    <t>540a</t>
+  </si>
+  <si>
+    <t>Цифровая кафедра Open</t>
+  </si>
+  <si>
+    <t>Преподавательская радиофизики и электрических систем</t>
+  </si>
+  <si>
+    <t>Лаборатория импульсной техники</t>
+  </si>
+  <si>
+    <t>Лаборатория радиоприемных и антеннофидерных устройств</t>
+  </si>
+  <si>
+    <t>Преподавательская радиофизики</t>
+  </si>
+  <si>
+    <t>Учебный аудитория</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории 3D моделирования и Виртуальной реальности</t>
+  </si>
+  <si>
+    <t>Лаборатория радио-электронных устройств</t>
+  </si>
+  <si>
+    <t>Кафедра "Радиофизика и электронные системы" ФТИ</t>
+  </si>
+  <si>
+    <t>Кафедра "Алгебра, геометрия, математический анализ и дифференциальные уравнения" ИМИ</t>
+  </si>
+  <si>
+    <t>Кафедра "Информационная безопасность и телекоммуникационные системы" ИМИ</t>
+  </si>
+  <si>
+    <t>Заведующий кафедрой Жебсаин Василий Васильевич</t>
+  </si>
+  <si>
+    <t>Компьютерный класс ИМИ</t>
+  </si>
+  <si>
+    <t>Студенческое конструкторское бюро радиоэлектроники</t>
+  </si>
+  <si>
+    <t>Учебная аудитория ФТИ</t>
+  </si>
+  <si>
+    <t>Кафедра "Иностранные языки по техническим и естественным специальностям" ИЗФиР</t>
+  </si>
+  <si>
+    <t>ЯО РНОМЦ Дальневосточный центр математических исследований</t>
+  </si>
+  <si>
+    <t>Научно исследовательский институт математики</t>
+  </si>
+  <si>
+    <t>Кафедра "Спортивно-педогогические дисциплины и туризм" ИФКиС</t>
+  </si>
+  <si>
+    <t>Преподавательская ИФКиС</t>
+  </si>
+  <si>
+    <t>Малый спортивный зал</t>
+  </si>
+  <si>
+    <t>спортзал</t>
+  </si>
+  <si>
+    <t>Инвентарная ИФКиС</t>
+  </si>
+  <si>
+    <t>Преподавательская "Теория физ. культуры и спорта" ИФКиС</t>
+  </si>
+  <si>
+    <t>Румба Ольга Геннадьевна ИФКиС</t>
+  </si>
+  <si>
+    <t>Учебная аудитория ИФКиС</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория геоботаники</t>
+  </si>
+  <si>
+    <t>Егорова Аксинья Егоровна, профессор кафедры "Педагогическое отделение" ИЕН</t>
+  </si>
+  <si>
+    <t>Тарасов Ариан Егорович, заведующий кафедрой "Спортивно-педагогические дисциплины и туризм" ИФКиС</t>
+  </si>
+  <si>
+    <t>Софронов Родион Павлович ИЕН</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории микробиологии</t>
+  </si>
+  <si>
+    <t>УНЛ молекулярно генетические и клеточные технологии</t>
+  </si>
+  <si>
+    <t>Охлопкова Жанна Михайловна ИЕН</t>
+  </si>
+  <si>
+    <t>228a</t>
+  </si>
+  <si>
+    <t>Инсектарий СВФУ</t>
+  </si>
+  <si>
+    <t>224a</t>
+  </si>
+  <si>
+    <t>Студия Jalinga</t>
+  </si>
+  <si>
+    <t>Сетевики СВФУ</t>
+  </si>
+  <si>
+    <t>Дверь</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории механики колебаний и волн</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория механики колебаний и волн</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория молекулярной физики</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории молекулярной физики</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория оптики</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории оптики</t>
+  </si>
+  <si>
+    <t>Мамаева Саргылана Николаевна, заведующий кафедрой "Общая и экспериментальная физика"</t>
+  </si>
+  <si>
+    <t>УМО Физико-технического института (учебно-методический отдел)</t>
+  </si>
+  <si>
+    <t>Приемная Физико-технического института</t>
+  </si>
+  <si>
+    <t>Музей зоологии ИЕН</t>
+  </si>
+  <si>
+    <t>Кафедра "Ботаники и мерзлотного лесоведения" ИЕН</t>
+  </si>
+  <si>
+    <t>Колодезников Василий Егорович, директор ИЕН</t>
+  </si>
+  <si>
+    <t>УМО Института естественных наук (учебно-методический отдел)</t>
+  </si>
+  <si>
+    <t>Большая лекционная</t>
+  </si>
+  <si>
+    <t>Лабораторная аудитория ИЕН</t>
+  </si>
+  <si>
+    <t>Препараторская биологии</t>
+  </si>
+  <si>
+    <t>Чибыев Вадим Юрьевич ИЕН</t>
+  </si>
+  <si>
+    <t>Преподавательская педогогического отделения ИЕН</t>
+  </si>
+  <si>
+    <t>Лаборатория методики преподавания географии</t>
+  </si>
+  <si>
+    <t>Лаборатория методики преподавания химии</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории химии</t>
+  </si>
+  <si>
+    <t>Лабораторная методики преподавания биологии</t>
+  </si>
+  <si>
+    <t>Столовая</t>
+  </si>
+  <si>
+    <t>Буфет</t>
+  </si>
+  <si>
+    <t>кафе</t>
+  </si>
+  <si>
+    <t>Столовая КФЕН</t>
+  </si>
+  <si>
+    <t>Буфет КФЕН</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории радиационной экологии</t>
+  </si>
+  <si>
+    <t>Лаборатория радиационной экологии</t>
+  </si>
+  <si>
+    <t>Лаборатория метрологии и стандартизации</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории метрологии и стандартизации</t>
+  </si>
+  <si>
+    <t>Лаборатория структурных исследований</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории порошковой металлургии</t>
+  </si>
+  <si>
+    <t>Лаборатория порошковой металлургии</t>
+  </si>
+  <si>
+    <t>Преподавательская кафедры физики материалов и технологий сварки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Преподавательская </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ФТИ</t>
+    </r>
+  </si>
+  <si>
+    <t>Лаборатория материаловедения и технологии конструкционных материалов</t>
+  </si>
+  <si>
+    <t>Лаборатория диагностики и технологии сварочного производства</t>
+  </si>
+  <si>
+    <t>Межфакультетская лаборатория композиционных материалов</t>
+  </si>
+  <si>
+    <t>Лаборатория традиционных технологий</t>
+  </si>
+  <si>
+    <t>дверь</t>
+  </si>
+  <si>
+    <t>Страшно тут, непонятно</t>
+  </si>
+  <si>
+    <t>УНТЛ технология полимерных нанокомпозитов</t>
+  </si>
+  <si>
+    <t>Дмитрий Владимирович Жирков, директов АХО КФЕН</t>
+  </si>
+  <si>
+    <t>Специалисты АХЧ КФЕН</t>
+  </si>
+  <si>
+    <t>Лаборатория анализа нефтей и нефтепродуктов</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория анатомии и морфологии растений</t>
+  </si>
+  <si>
+    <t>Лаборатория малого практикума по биохимии</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории малого практикума по биохимии</t>
+  </si>
+  <si>
+    <t>Лаборантская гистологии. Преподавательская</t>
+  </si>
+  <si>
+    <t>Курс гистологии</t>
+  </si>
+  <si>
+    <t>Курс гистологии, учебная лаборатория озероведения</t>
+  </si>
+  <si>
+    <t>Курс микробиологии</t>
+  </si>
+  <si>
+    <t>632a</t>
+  </si>
+  <si>
+    <t>Центр развития цифровых компетенций и онлайн образования</t>
+  </si>
+  <si>
+    <t>ДЦТ (Депортамент цифровых технологий)</t>
+  </si>
+  <si>
+    <t>Учебно-лекционная аудитория</t>
+  </si>
+  <si>
+    <t>Лекционная</t>
+  </si>
+  <si>
+    <t>622a</t>
+  </si>
+  <si>
+    <t>Курс гистологии, учебная аудитория</t>
+  </si>
+  <si>
+    <t>Елена Виссарионовна Пшенникова, заведующая кафедры "Гистология и микробиология" МИ</t>
+  </si>
+  <si>
+    <t>Кафедра "Гистологии и микробиологии" МИ</t>
+  </si>
+  <si>
+    <t>Компьютерный класс, курс микробиологии МИ</t>
+  </si>
+  <si>
+    <t>Преподавательская МИ</t>
+  </si>
+  <si>
+    <t>Лаборантская МИ</t>
+  </si>
+  <si>
+    <t>Лаборатория медико-физиологических исследований</t>
+  </si>
+  <si>
+    <t>Моечная МИ</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория цитологии и гистологии</t>
+  </si>
+  <si>
+    <t>Препараторская биологическое отделение</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория систематики растений</t>
+  </si>
+  <si>
+    <t>Лаборатория зоологии позвоночных ИЕН</t>
+  </si>
+  <si>
+    <t>Препараторская ИЕН</t>
+  </si>
+  <si>
+    <t>Преподавательская географического направления эколого-географического отделения</t>
+  </si>
+  <si>
+    <t>Учебная аудитория, компьютерный класс</t>
+  </si>
+  <si>
+    <t>Антонина Николаевна Саввинова, руководитель образовательных программ по географии</t>
+  </si>
+  <si>
+    <t>Препараторская эколого-географического отделения</t>
+  </si>
+  <si>
+    <t>Картографический зал ИЕН</t>
+  </si>
+  <si>
+    <t>734a</t>
+  </si>
+  <si>
+    <t>734b</t>
+  </si>
+  <si>
+    <t>Лаборатория гидрометереологии климатологии и экологии атмосферы</t>
+  </si>
+  <si>
+    <t>УМО Кафедры иностранных языков по техническим и естественным спец. (учебно-методический отдел)</t>
+  </si>
+  <si>
+    <t>умо</t>
+  </si>
+  <si>
+    <t>722a</t>
+  </si>
+  <si>
+    <t>дверь туда</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории оптики и астрономии</t>
+  </si>
+  <si>
+    <t>Лаборатория оптики и астрономии</t>
+  </si>
+  <si>
+    <t>Лаборатория физпрактикума для инженерных специальностей</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории физпрактикума для инженерных специальностей</t>
+  </si>
+  <si>
+    <t>Препараторская ФТИ</t>
+  </si>
+  <si>
+    <t>Лаборатория тепломассообмена</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории тепломассообмена</t>
+  </si>
+  <si>
+    <t>Преподавательская ФТИ</t>
+  </si>
+  <si>
+    <t>Тимофеев Айал Михайлович,заведующий кафедрой "Теплофизика и теплоэнергетика"</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория художественного материаловедения</t>
+  </si>
+  <si>
+    <t>Дмитриева Варвара Семеновна, заведующая кафедрой "Технология обработки драгоценных камней и металлов"</t>
+  </si>
+  <si>
+    <t>Лаборатория физико-химических методов анализа</t>
+  </si>
+  <si>
+    <t>Лаборатория теплофизических исследований</t>
+  </si>
+  <si>
+    <t>Препараторская лаборатории теплофизических исследований</t>
+  </si>
+  <si>
+    <t>УМО Института математики и информатики (учебно-методический отдел)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -447,10 +1032,2383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="108.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>739</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>741</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>743</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>745</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>747</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>749</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>752</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>750</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>748</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>746</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>744</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>742</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>740</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>738</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>734</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>732</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>730</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>728</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>724</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>722</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>720</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>718</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>716</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>714</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>712</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>710</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>708</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>706</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>704</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>701</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>703</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>705</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>707</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>709</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>711</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>713</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>639</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>641</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>643</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>647</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>649</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>650</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>648</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>646</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>644</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>642</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>632</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>630</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>628</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>626</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>622</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>620</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>618</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>616</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>614</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>612</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>610</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>608</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>606</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>604</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>601</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>603</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>605</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>607</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>609</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>611</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>613</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>615</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="90.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>566</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>564</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>560</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>558</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>556</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>554</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>552</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>550</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>548</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>546</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>593</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>591</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>589</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>587</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>585</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>583</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>536</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>532</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>528</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>522</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>520</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>518</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>516</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>514</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>512</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>510</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>508</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>506</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>504</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>519</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>517</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>515</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>533</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>535</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>537</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>539</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>543</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>545</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>547</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>551</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>553</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>555</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>557</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>559</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>561</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>563</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,13 +3803,13 @@
         <v>441</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,13 +3854,13 @@
         <v>449</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,13 +3871,13 @@
         <v>451</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,13 +3888,13 @@
         <v>453</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,13 +3905,13 @@
         <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -964,13 +3922,13 @@
         <v>457</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,13 +3939,13 @@
         <v>459</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,13 +3956,13 @@
         <v>461</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,13 +3973,13 @@
         <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,7 +4064,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,7 +4081,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1140,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1157,7 +4115,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,7 +4183,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,7 +4217,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,15 +4251,24 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>461</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
       <c r="D51">
         <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,4 +4282,2527 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="89.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>389</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>346</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>344</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>340</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>385</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>383</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>381</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>379</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>326</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>324</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>322</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>318</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>316</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>314</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>327</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>317</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>315</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>333</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>335</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>343</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>345</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>349</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>351</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>353</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>355</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>357</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>359</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>361</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="102.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>254</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>244</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>228</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>224</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>215</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>231</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>235</v>
+      </c>
+      <c r="C43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>241</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>243</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/floorINFO.xlsx
+++ b/floorINFO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7 этаж" sheetId="7" r:id="rId1"/>
@@ -730,12 +730,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -750,8 +756,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2516,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4288,8 +4295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,16 +5214,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>274</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5224,16 +5231,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>276</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5241,16 +5248,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>278</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5258,16 +5265,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>280</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5275,16 +5282,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>284</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5292,16 +5299,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>288</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5309,16 +5316,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>290</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5326,16 +5333,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>292</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5343,16 +5350,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>294</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5360,16 +5367,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>262</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5377,16 +5384,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>260</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5394,16 +5401,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>270</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5411,16 +5418,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>266</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>110</v>
       </c>
     </row>

--- a/floorINFO.xlsx
+++ b/floorINFO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="7 этаж" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>кафе</t>
-  </si>
-  <si>
-    <t>Столовая КФЕН</t>
   </si>
   <si>
     <t>Буфет КФЕН</t>
@@ -707,6 +704,24 @@
   </si>
   <si>
     <t>УМО Института математики и информатики (учебно-методический отдел)</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория физиологии животных и человека</t>
+  </si>
+  <si>
+    <t>Преподавательская биологического отделение ИЕН</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория физиологии растений</t>
+  </si>
+  <si>
+    <t>Преподавательская педогогическое отделение ИЕН</t>
+  </si>
+  <si>
+    <t>Учебная лаборатория хромато-масс спектрометрии</t>
+  </si>
+  <si>
+    <t>Главная столовая КФЕН</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1319,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1327,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1336,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,13 +1413,13 @@
         <v>728</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1438,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,7 +1487,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1489,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1574,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1625,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,7 +1691,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,12 +1821,12 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1845,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1862,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1879,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1930,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,16 +2038,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2083,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2117,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B50" sqref="B44:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,13 +3825,13 @@
         <v>441</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5184,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5218,7 +5233,7 @@
         <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5830,7 +5845,7 @@
         <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5915,7 +5930,7 @@
         <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -5996,58 +6011,88 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>277</v>
+      </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>279</v>
+      </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50">
+        <v>281</v>
+      </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>283</v>
+      </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52">
+        <v>285</v>
+      </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6058,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6069,7 +6114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6080,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6091,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6102,7 +6147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6113,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6124,7 +6169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6135,7 +6180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6155,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6399,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6416,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6433,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6450,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6467,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6484,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6501,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6518,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6535,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6552,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6569,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -6603,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6620,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6637,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6654,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6671,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6688,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6705,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6722,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6739,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">

--- a/floorINFO.xlsx
+++ b/floorINFO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7 этаж" sheetId="7" r:id="rId1"/>
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B50" sqref="B44:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E34"/>
     </sheetView>
   </sheetViews>
